--- a/Tree Account.xlsx
+++ b/Tree Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A7D091-3D8D-4C50-9BEB-610CF75EED7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF2590-F23A-43C8-A69C-508326E382FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8DE9341-FD8D-480E-9B5B-894571E89E4B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="125">
   <si>
     <t>Description</t>
   </si>
@@ -83,21 +83,12 @@
     <t>سلف نثرية</t>
   </si>
   <si>
-    <t>بنك1</t>
-  </si>
-  <si>
-    <t>شركة1</t>
-  </si>
-  <si>
     <t>ذمم مدينة غير تجارية</t>
   </si>
   <si>
     <t>ذمم موظفين</t>
   </si>
   <si>
-    <t>ذمة مدينة غير تجارية1</t>
-  </si>
-  <si>
     <t>استثمارات لغايات المتاجرة</t>
   </si>
   <si>
@@ -209,15 +200,6 @@
     <t>المباني1</t>
   </si>
   <si>
-    <t>الع?مات التجارية1</t>
-  </si>
-  <si>
-    <t>براعة ا?ختراع</t>
-  </si>
-  <si>
-    <t>براعة ا?ختراع1</t>
-  </si>
-  <si>
     <t>مصاريف التأسيس</t>
   </si>
   <si>
@@ -377,12 +359,6 @@
     <t>Tree-Main</t>
   </si>
   <si>
-    <t>Bank-Main</t>
-  </si>
-  <si>
-    <t>Cheque-Main</t>
-  </si>
-  <si>
     <t>الذمم  الدائنة</t>
   </si>
   <si>
@@ -408,6 +384,30 @@
   </si>
   <si>
     <t>IsPrime</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>براعة اختراع</t>
+  </si>
+  <si>
+    <t>العلامات التجارية 1</t>
+  </si>
+  <si>
+    <t>براعة اختراع 1</t>
+  </si>
+  <si>
+    <t>مستحقات رواتب</t>
+  </si>
+  <si>
+    <t>Cheques-Main</t>
+  </si>
+  <si>
+    <t>Banks-Main</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -777,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3CBB81-A5B1-4221-9A31-5BE15C378FA5}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -816,7 +816,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -824,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -837,7 +839,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -845,20 +849,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -866,20 +872,22 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -887,20 +895,22 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -908,20 +918,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -929,20 +941,22 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -950,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -963,7 +977,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -971,20 +987,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -992,20 +1010,22 @@
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -1013,20 +1033,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -1034,20 +1056,22 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
@@ -1055,20 +1079,22 @@
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
@@ -1076,20 +1102,22 @@
         <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1097,20 +1125,22 @@
         <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -1118,20 +1148,22 @@
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -1139,20 +1171,22 @@
         <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G17" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
@@ -1160,20 +1194,22 @@
         <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G18" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
@@ -1181,20 +1217,22 @@
         <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G19" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
@@ -1202,20 +1240,22 @@
         <v>211</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
@@ -1223,20 +1263,22 @@
         <v>212</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G21" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
@@ -1244,20 +1286,22 @@
         <v>213</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G22" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
@@ -1265,20 +1309,22 @@
         <v>214</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G23" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B24" s="2">
         <v>0</v>
       </c>
@@ -1286,20 +1332,22 @@
         <v>215</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
@@ -1307,20 +1355,22 @@
         <v>216</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
@@ -1328,20 +1378,22 @@
         <v>221</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G26" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B27" s="2">
         <v>0</v>
       </c>
@@ -1349,20 +1401,22 @@
         <v>411</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G27" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B28" s="2">
         <v>0</v>
       </c>
@@ -1370,20 +1424,22 @@
         <v>511</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G28" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B29" s="2">
         <v>0</v>
       </c>
@@ -1391,20 +1447,22 @@
         <v>512</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G29" s="2">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B30" s="2">
         <v>0</v>
       </c>
@@ -1412,7 +1470,7 @@
         <v>1101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
@@ -1425,7 +1483,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
@@ -1433,7 +1493,7 @@
         <v>1102</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -1446,7 +1506,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
@@ -1454,7 +1516,7 @@
         <v>1103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
@@ -1467,7 +1529,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B33" s="2">
         <v>0</v>
       </c>
@@ -1475,20 +1539,22 @@
         <v>1104</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G33" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B34" s="2">
         <v>0</v>
       </c>
@@ -1496,20 +1562,22 @@
         <v>1105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G34" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B35" s="2">
         <v>0</v>
       </c>
@@ -1517,20 +1585,22 @@
         <v>1106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G35" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B36" s="2">
         <v>0</v>
       </c>
@@ -1538,20 +1608,22 @@
         <v>1107</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G36" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B37" s="2">
         <v>0</v>
       </c>
@@ -1559,20 +1631,22 @@
         <v>1108</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G37" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
@@ -1580,20 +1654,22 @@
         <v>1201</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B39" s="2">
         <v>0</v>
       </c>
@@ -1601,20 +1677,22 @@
         <v>1202</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G39" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B40" s="2">
         <v>0</v>
       </c>
@@ -1622,20 +1700,22 @@
         <v>1203</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G40" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B41" s="2">
         <v>0</v>
       </c>
@@ -1643,20 +1723,22 @@
         <v>2111</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G41" s="2">
         <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B42" s="2">
         <v>0</v>
       </c>
@@ -1664,20 +1746,22 @@
         <v>2112</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G42" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B43" s="2">
         <v>0</v>
       </c>
@@ -1685,20 +1769,22 @@
         <v>2131</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G43" s="2">
         <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B44" s="2">
         <v>0</v>
       </c>
@@ -1706,20 +1792,22 @@
         <v>2141</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G44" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B45" s="2">
         <v>0</v>
       </c>
@@ -1727,20 +1815,22 @@
         <v>2142</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G45" s="2">
         <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B46" s="2">
         <v>0</v>
       </c>
@@ -1748,20 +1838,22 @@
         <v>2143</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G46" s="2">
         <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B47" s="2">
         <v>0</v>
       </c>
@@ -1769,20 +1861,22 @@
         <v>2161</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G47" s="2">
         <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B48" s="2">
         <v>0</v>
       </c>
@@ -1790,20 +1884,22 @@
         <v>2162</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G48" s="2">
         <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B49" s="2">
         <v>0</v>
       </c>
@@ -1811,20 +1907,22 @@
         <v>2163</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G49" s="2">
         <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B50" s="2">
         <v>0</v>
       </c>
@@ -1832,20 +1930,22 @@
         <v>2164</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G50" s="2">
         <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B51" s="2">
         <v>0</v>
       </c>
@@ -1853,20 +1953,22 @@
         <v>2165</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G51" s="2">
         <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B52" s="2">
         <v>0</v>
       </c>
@@ -1874,20 +1976,22 @@
         <v>4111</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G52" s="2">
         <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B53" s="2">
         <v>0</v>
       </c>
@@ -1895,88 +1999,96 @@
         <v>4112</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G53" s="2">
         <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B54" s="2">
         <v>0</v>
       </c>
       <c r="C54" s="2">
+        <v>5121</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
         <v>11021</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G55" s="2">
         <v>1102</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2">
-        <v>0</v>
-      </c>
-      <c r="C55" s="2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
         <v>11031</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G56" s="2">
         <v>1103</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2">
-        <v>0</v>
-      </c>
-      <c r="C56" s="2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
         <v>11041</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>11042</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>113</v>
@@ -1985,371 +2097,407 @@
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G57" s="2">
         <v>1104</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B58" s="2">
         <v>0</v>
       </c>
       <c r="C58" s="2">
-        <v>11043</v>
+        <v>11042</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G58" s="2">
         <v>1104</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B59" s="2">
         <v>0</v>
       </c>
       <c r="C59" s="2">
+        <v>11043</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
         <v>11071</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="2">
+      <c r="D60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="2">
         <v>1107</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
         <v>11081</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2">
-        <v>0</v>
-      </c>
-      <c r="C61" s="2">
-        <v>11082</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" s="2">
         <v>1108</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B62" s="2">
         <v>0</v>
       </c>
       <c r="C62" s="2">
-        <v>11083</v>
+        <v>11082</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G62" s="2">
         <v>1108</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B63" s="2">
         <v>0</v>
       </c>
       <c r="C63" s="2">
+        <v>11083</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
         <v>12011</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" s="2">
+      <c r="D64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="2">
         <v>1201</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
         <v>12031</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="2">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2">
-        <v>12032</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="G65" s="2">
         <v>1203</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B66" s="2">
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>12033</v>
+        <v>12032</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G66" s="2">
         <v>1203</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B67" s="2">
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <v>12034</v>
+        <v>12033</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="G67" s="2">
         <v>1203</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B68" s="2">
         <v>0</v>
       </c>
       <c r="C68" s="2">
-        <v>52101</v>
+        <v>12034</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="G68" s="2">
-        <v>512</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B69" s="2">
         <v>0</v>
       </c>
       <c r="C69" s="2">
-        <v>52102</v>
+        <v>51202</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G69" s="2">
         <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B70" s="2">
         <v>0</v>
       </c>
       <c r="C70" s="2">
+        <v>51212</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" s="2">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
         <v>110111</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G70" s="2">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2">
-        <v>110112</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G71" s="2">
         <v>1101</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B72" s="2">
         <v>0</v>
       </c>
       <c r="C72" s="2">
-        <v>110113</v>
+        <v>110112</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2">
         <v>1101</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B73" s="2">
         <v>0</v>
       </c>
       <c r="C73" s="2">
-        <v>110114</v>
+        <v>110113</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2">
         <v>1101</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B74" s="2">
         <v>0</v>
       </c>
       <c r="C74" s="2">
-        <v>110211</v>
+        <v>110114</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2">
-        <v>11021</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B75" s="2">
         <v>0</v>
       </c>
@@ -2357,20 +2505,22 @@
         <v>120201</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G75" s="2">
         <v>1202</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B76" s="2">
         <v>0</v>
       </c>
@@ -2378,20 +2528,22 @@
         <v>120202</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G76" s="2">
         <v>1202</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B77" s="2">
         <v>0</v>
       </c>
@@ -2399,20 +2551,22 @@
         <v>120203</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G77" s="2">
         <v>1202</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B78" s="2">
         <v>0</v>
       </c>
@@ -2420,20 +2574,22 @@
         <v>120204</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G78" s="2">
         <v>1202</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B79" s="2">
         <v>0</v>
       </c>
@@ -2441,20 +2597,22 @@
         <v>120205</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G79" s="2">
         <v>1202</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B80" s="2">
         <v>0</v>
       </c>
@@ -2462,20 +2620,22 @@
         <v>120206</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G80" s="2">
         <v>1202</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B81" s="2">
         <v>0</v>
       </c>
@@ -2483,20 +2643,22 @@
         <v>120207</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G81" s="2">
         <v>1202</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B82" s="2">
         <v>0</v>
       </c>
@@ -2504,20 +2666,22 @@
         <v>211201</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G82" s="2">
         <v>2112</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B83" s="2">
         <v>0</v>
       </c>
@@ -2525,20 +2689,22 @@
         <v>213101</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G83" s="2">
         <v>2131</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B84" s="2">
         <v>0</v>
       </c>
@@ -2546,20 +2712,22 @@
         <v>215101</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G84" s="2">
         <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B85" s="2">
         <v>0</v>
       </c>
@@ -2567,20 +2735,22 @@
         <v>216301</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G85" s="2">
         <v>2163</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B86" s="2">
         <v>0</v>
       </c>
@@ -2588,20 +2758,22 @@
         <v>216401</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G86" s="2">
         <v>2164</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B87" s="2">
         <v>0</v>
       </c>
@@ -2609,20 +2781,22 @@
         <v>216501</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G87" s="2">
         <v>2165</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B88" s="2">
         <v>0</v>
       </c>
@@ -2630,20 +2804,22 @@
         <v>221101</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G88" s="2">
         <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B89" s="2">
         <v>0</v>
       </c>
@@ -2651,20 +2827,22 @@
         <v>311101</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G89" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B90" s="2">
         <v>0</v>
       </c>
@@ -2672,20 +2850,22 @@
         <v>331101</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G90" s="2">
         <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B91" s="2">
         <v>0</v>
       </c>
@@ -2693,20 +2873,22 @@
         <v>2141001</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G91" s="2">
         <v>2141</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B92" s="2">
         <v>0</v>
       </c>
@@ -2714,20 +2896,22 @@
         <v>2142001</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G92" s="2">
         <v>2142</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B93" s="2">
         <v>0</v>
       </c>
@@ -2735,20 +2919,22 @@
         <v>2143001</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G93" s="2">
         <v>2143</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B94" s="2">
         <v>0</v>
       </c>
@@ -2756,20 +2942,22 @@
         <v>5210201</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G94" s="2">
-        <v>52102</v>
+        <v>51202</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B95" s="2">
         <v>0</v>
       </c>
@@ -2777,91 +2965,99 @@
         <v>6211001</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G95" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B96" s="2">
         <v>0</v>
       </c>
       <c r="C96" s="2">
-        <v>11041001</v>
+        <v>11051001</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2">
-        <v>11041</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B97" s="2">
         <v>0</v>
       </c>
       <c r="C97" s="2">
-        <v>11042001</v>
+        <v>11061001</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G97" s="2">
-        <v>11042</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B98" s="2">
         <v>0</v>
       </c>
       <c r="C98" s="2">
-        <v>11051001</v>
+        <v>11071001</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2">
-        <v>1105</v>
+        <v>11071</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B99" s="2">
         <v>0</v>
       </c>
       <c r="C99" s="2">
-        <v>11061001</v>
+        <v>11081001</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="b">
         <v>0</v>
@@ -2870,19 +3066,21 @@
         <v>26</v>
       </c>
       <c r="G99" s="2">
-        <v>1106</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B100" s="2">
         <v>0</v>
       </c>
       <c r="C100" s="2">
-        <v>11071001</v>
+        <v>11082001</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="b">
         <v>0</v>
@@ -2891,166 +3089,182 @@
         <v>25</v>
       </c>
       <c r="G100" s="2">
-        <v>11071</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B101" s="2">
         <v>0</v>
       </c>
       <c r="C101" s="2">
-        <v>11081001</v>
+        <v>11083001</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E101" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" s="2">
-        <v>11081</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="A102" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B102" s="2">
         <v>0</v>
       </c>
       <c r="C102" s="2">
-        <v>11082001</v>
+        <v>12011001</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G102" s="2">
-        <v>11082</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B103" s="2">
         <v>0</v>
       </c>
       <c r="C103" s="2">
-        <v>11083001</v>
+        <v>12031001</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G103" s="2">
-        <v>11083</v>
+        <v>12031</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="A104" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B104" s="2">
         <v>0</v>
       </c>
       <c r="C104" s="2">
-        <v>12011001</v>
+        <v>12032001</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="G104" s="2">
-        <v>12011</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
+      <c r="A105" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B105" s="2">
         <v>0</v>
       </c>
       <c r="C105" s="2">
-        <v>12031001</v>
+        <v>12033001</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="G105" s="2">
-        <v>12031</v>
+        <v>12033</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B106" s="2">
         <v>0</v>
       </c>
       <c r="C106" s="2">
-        <v>12032001</v>
+        <v>120201001</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G106" s="2">
-        <v>12032</v>
+        <v>120201</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
+      <c r="A107" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B107" s="2">
         <v>0</v>
       </c>
       <c r="C107" s="2">
-        <v>12033001</v>
+        <v>120202001</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G107" s="2">
-        <v>12033</v>
+        <v>120202</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
+      <c r="A108" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B108" s="2">
         <v>0</v>
       </c>
       <c r="C108" s="2">
-        <v>120201001</v>
+        <v>120203001</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="b">
         <v>0</v>
@@ -3059,40 +3273,44 @@
         <v>43</v>
       </c>
       <c r="G108" s="2">
-        <v>120201</v>
+        <v>120203</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="A109" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B109" s="2">
         <v>0</v>
       </c>
       <c r="C109" s="2">
-        <v>120202001</v>
+        <v>120204001</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G109" s="2">
-        <v>120202</v>
+        <v>120204</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
+      <c r="A110" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B110" s="2">
         <v>0</v>
       </c>
       <c r="C110" s="2">
-        <v>120203001</v>
+        <v>120205001</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="b">
         <v>0</v>
@@ -3101,96 +3319,94 @@
         <v>46</v>
       </c>
       <c r="G110" s="2">
-        <v>120203</v>
+        <v>120205</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="A111" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B111" s="2">
         <v>0</v>
       </c>
       <c r="C111" s="2">
-        <v>120204001</v>
+        <v>120206001</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G111" s="2">
-        <v>120204</v>
+        <v>120206</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="A112" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B112" s="2">
         <v>0</v>
       </c>
       <c r="C112" s="2">
-        <v>120205001</v>
+        <v>120207001</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G112" s="2">
-        <v>120205</v>
+        <v>120207</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-      <c r="B113" s="2">
-        <v>0</v>
-      </c>
-      <c r="C113" s="2">
-        <v>120206001</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G113" s="2">
-        <v>120206</v>
-      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="B114" s="2">
-        <v>0</v>
-      </c>
-      <c r="C114" s="2">
-        <v>120207001</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G114" s="2">
-        <v>120207</v>
-      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G148">
-    <sortCondition ref="C1:C148"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G117">
+    <sortCondition ref="C1:C117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tree Account.xlsx
+++ b/Tree Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF2590-F23A-43C8-A69C-508326E382FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DBF29C-FD87-4654-9509-C0CDE0A63FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8DE9341-FD8D-480E-9B5B-894571E89E4B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
   <si>
     <t>Description</t>
   </si>
@@ -408,6 +408,15 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>Members-Main</t>
+  </si>
+  <si>
+    <t>ذمم مدينة مشتركين</t>
+  </si>
+  <si>
+    <t>Employees-Main</t>
   </si>
 </sst>
 </file>
@@ -777,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3CBB81-A5B1-4221-9A31-5BE15C378FA5}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,16 +2120,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="2">
-        <v>11042</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>11045</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="G58" s="2">
         <v>1104</v>
@@ -2134,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="2">
-        <v>11043</v>
+        <v>11042</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>107</v>
@@ -2143,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" s="2">
         <v>1104</v>
@@ -2157,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="C60" s="2">
-        <v>11071</v>
+        <v>11043</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G60" s="2">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2180,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="2">
-        <v>11081</v>
+        <v>11071</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>107</v>
@@ -2189,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="2">
-        <v>11082</v>
+        <v>11081</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>107</v>
@@ -2212,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G62" s="2">
         <v>1108</v>
@@ -2226,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="2">
-        <v>11083</v>
+        <v>11082</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>107</v>
@@ -2235,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G63" s="2">
         <v>1108</v>
@@ -2249,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="2">
-        <v>12011</v>
+        <v>11083</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>107</v>
@@ -2258,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G64" s="2">
-        <v>1201</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="2">
-        <v>12031</v>
+        <v>12011</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>107</v>
@@ -2281,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G65" s="2">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2295,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>12032</v>
+        <v>12031</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>107</v>
@@ -2304,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G66" s="2">
         <v>1203</v>
@@ -2318,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <v>12033</v>
+        <v>12032</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>107</v>
@@ -2327,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="G67" s="2">
         <v>1203</v>
@@ -2341,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="2">
-        <v>12034</v>
+        <v>12033</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>107</v>
@@ -2350,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="G68" s="2">
         <v>1203</v>
@@ -2364,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="2">
-        <v>51202</v>
+        <v>12034</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>107</v>
@@ -2373,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="G69" s="2">
-        <v>512</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2387,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="2">
-        <v>51212</v>
+        <v>51202</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>107</v>
@@ -2396,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G70" s="2">
-        <v>5121</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="2">
-        <v>110111</v>
+        <v>51212</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>107</v>
@@ -2419,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G71" s="2">
-        <v>1101</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2433,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="2">
-        <v>110112</v>
+        <v>110111</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>107</v>
@@ -2442,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" s="2">
         <v>1101</v>
@@ -2456,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="2">
-        <v>110113</v>
+        <v>110112</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>107</v>
@@ -2465,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G73" s="2">
         <v>1101</v>
@@ -2479,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="2">
-        <v>110114</v>
+        <v>110113</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>107</v>
@@ -2488,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" s="2">
         <v>1101</v>
@@ -2502,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="2">
-        <v>120201</v>
+        <v>110114</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>107</v>
@@ -2511,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2">
-        <v>1202</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2525,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="2">
-        <v>120202</v>
+        <v>120201</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>107</v>
@@ -2534,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" s="2">
         <v>1202</v>
@@ -2548,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="2">
-        <v>120203</v>
+        <v>120202</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>107</v>
@@ -2557,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G77" s="2">
         <v>1202</v>
@@ -2571,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="2">
-        <v>120204</v>
+        <v>120203</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>107</v>
@@ -2580,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G78" s="2">
         <v>1202</v>
@@ -2594,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="2">
-        <v>120205</v>
+        <v>120204</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>107</v>
@@ -2603,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G79" s="2">
         <v>1202</v>
@@ -2617,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="2">
-        <v>120206</v>
+        <v>120205</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>107</v>
@@ -2626,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G80" s="2">
         <v>1202</v>
@@ -2640,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="2">
-        <v>120207</v>
+        <v>120206</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>107</v>
@@ -2649,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G81" s="2">
         <v>1202</v>
@@ -2663,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="2">
-        <v>211201</v>
+        <v>120207</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>107</v>
@@ -2672,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G82" s="2">
-        <v>2112</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2686,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="2">
-        <v>213101</v>
+        <v>211201</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>107</v>
@@ -2695,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G83" s="2">
-        <v>2131</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="2">
-        <v>215101</v>
+        <v>213101</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>107</v>
@@ -2718,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G84" s="2">
-        <v>215</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="2">
-        <v>216301</v>
+        <v>215101</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>107</v>
@@ -2741,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G85" s="2">
-        <v>2163</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="2">
-        <v>216401</v>
+        <v>216301</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>107</v>
@@ -2764,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="G86" s="2">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2778,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="2">
-        <v>216501</v>
+        <v>216401</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>107</v>
@@ -2787,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="G87" s="2">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="2">
-        <v>221101</v>
+        <v>216501</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>107</v>
@@ -2810,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="G88" s="2">
-        <v>221</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2824,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="2">
-        <v>311101</v>
+        <v>221101</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>107</v>
@@ -2833,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G89" s="2">
-        <v>31</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="2">
-        <v>331101</v>
+        <v>311101</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>107</v>
@@ -2856,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G90" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2870,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="2">
-        <v>2141001</v>
+        <v>331101</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>107</v>
@@ -2879,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="G91" s="2">
-        <v>2141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="2">
-        <v>2142001</v>
+        <v>2141001</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>107</v>
@@ -2902,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G92" s="2">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2916,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="2">
-        <v>2143001</v>
+        <v>2142001</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>107</v>
@@ -2925,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G93" s="2">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="2">
-        <v>5210201</v>
+        <v>2143001</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>107</v>
@@ -2948,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G94" s="2">
-        <v>51202</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2962,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="2">
-        <v>6211001</v>
+        <v>5210201</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>107</v>
@@ -2971,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G95" s="2">
-        <v>62</v>
+        <v>51202</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2985,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="2">
-        <v>11051001</v>
+        <v>6211001</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>107</v>
@@ -2994,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G96" s="2">
-        <v>1105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3008,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="2">
-        <v>11061001</v>
+        <v>11051001</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>107</v>
@@ -3017,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="2">
-        <v>11071001</v>
+        <v>11061001</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>107</v>
@@ -3040,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G98" s="2">
-        <v>11071</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3054,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="2">
-        <v>11081001</v>
+        <v>11071001</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>107</v>
@@ -3063,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2">
-        <v>11081</v>
+        <v>11071</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3077,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="2">
-        <v>11082001</v>
+        <v>11081001</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>107</v>
@@ -3086,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G100" s="2">
-        <v>11082</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3100,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="2">
-        <v>11083001</v>
+        <v>11082001</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>107</v>
@@ -3109,10 +3118,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G101" s="2">
-        <v>11083</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="2">
-        <v>12011001</v>
+        <v>11083001</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>107</v>
@@ -3132,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G102" s="2">
-        <v>12011</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3146,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="2">
-        <v>12031001</v>
+        <v>12011001</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>107</v>
@@ -3155,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G103" s="2">
-        <v>12031</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3169,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="2">
-        <v>12032001</v>
+        <v>12031001</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>107</v>
@@ -3178,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="G104" s="2">
-        <v>12032</v>
+        <v>12031</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3192,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="2">
-        <v>12033001</v>
+        <v>12032001</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>107</v>
@@ -3201,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G105" s="2">
-        <v>12033</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3215,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="2">
-        <v>120201001</v>
+        <v>12033001</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>107</v>
@@ -3224,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G106" s="2">
-        <v>120201</v>
+        <v>12033</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3238,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="2">
-        <v>120202001</v>
+        <v>120201001</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>107</v>
@@ -3247,10 +3256,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G107" s="2">
-        <v>120202</v>
+        <v>120201</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3261,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="2">
-        <v>120203001</v>
+        <v>120202001</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>107</v>
@@ -3270,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G108" s="2">
-        <v>120203</v>
+        <v>120202</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3284,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="2">
-        <v>120204001</v>
+        <v>120203001</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>107</v>
@@ -3293,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G109" s="2">
-        <v>120204</v>
+        <v>120203</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3307,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="2">
-        <v>120205001</v>
+        <v>120204001</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>107</v>
@@ -3316,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G110" s="2">
-        <v>120205</v>
+        <v>120204</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3330,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="2">
-        <v>120206001</v>
+        <v>120205001</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>107</v>
@@ -3339,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G111" s="2">
-        <v>120206</v>
+        <v>120205</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3353,29 +3362,43 @@
         <v>0</v>
       </c>
       <c r="C112" s="2">
+        <v>120206001</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="2">
+        <v>120206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2">
         <v>120207001</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2" t="s">
+      <c r="D113" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G113" s="2">
         <v>120207</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
@@ -3404,9 +3427,18 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G117">
-    <sortCondition ref="C1:C117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
+    <sortCondition ref="C1:C118"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tree Account.xlsx
+++ b/Tree Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DBF29C-FD87-4654-9509-C0CDE0A63FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB51D3-55C3-4401-9403-11A076F06A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8DE9341-FD8D-480E-9B5B-894571E89E4B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>Description</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>IsPrime</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>براعة اختراع</t>
@@ -788,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3CBB81-A5B1-4221-9A31-5BE15C378FA5}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,9 +822,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -848,9 +843,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -871,9 +864,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -894,9 +885,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -917,9 +906,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -940,9 +927,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -963,9 +948,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -986,9 +969,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -1009,9 +990,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -1032,9 +1011,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -1055,9 +1032,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -1078,9 +1053,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>0</v>
       </c>
@@ -1101,9 +1074,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>0</v>
       </c>
@@ -1124,9 +1095,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1147,9 +1116,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -1170,9 +1137,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -1193,9 +1158,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>0</v>
       </c>
@@ -1216,9 +1179,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>0</v>
       </c>
@@ -1239,9 +1200,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>0</v>
       </c>
@@ -1262,9 +1221,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>0</v>
       </c>
@@ -1285,9 +1242,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>0</v>
       </c>
@@ -1308,9 +1263,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>0</v>
       </c>
@@ -1331,9 +1284,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>0</v>
       </c>
@@ -1354,9 +1305,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>0</v>
       </c>
@@ -1377,9 +1326,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>0</v>
       </c>
@@ -1400,9 +1347,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>0</v>
       </c>
@@ -1423,9 +1368,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>0</v>
       </c>
@@ -1446,9 +1389,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>0</v>
       </c>
@@ -1469,9 +1410,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>0</v>
       </c>
@@ -1492,9 +1431,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>0</v>
       </c>
@@ -1515,9 +1452,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>0</v>
       </c>
@@ -1538,9 +1473,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>0</v>
       </c>
@@ -1561,9 +1494,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>0</v>
       </c>
@@ -1584,9 +1515,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>0</v>
       </c>
@@ -1607,9 +1536,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>0</v>
       </c>
@@ -1630,9 +1557,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>0</v>
       </c>
@@ -1653,9 +1578,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>0</v>
       </c>
@@ -1676,9 +1599,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>0</v>
       </c>
@@ -1699,9 +1620,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>0</v>
       </c>
@@ -1722,9 +1641,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>0</v>
       </c>
@@ -1745,9 +1662,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>0</v>
       </c>
@@ -1768,9 +1683,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>0</v>
       </c>
@@ -1791,9 +1704,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>0</v>
       </c>
@@ -1814,9 +1725,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>0</v>
       </c>
@@ -1837,9 +1746,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>0</v>
       </c>
@@ -1860,9 +1767,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>0</v>
       </c>
@@ -1883,9 +1788,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>0</v>
       </c>
@@ -1906,9 +1809,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>0</v>
       </c>
@@ -1929,9 +1830,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>0</v>
       </c>
@@ -1952,9 +1851,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>0</v>
       </c>
@@ -1975,9 +1872,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>0</v>
       </c>
@@ -1998,9 +1893,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>0</v>
       </c>
@@ -2021,9 +1914,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>0</v>
       </c>
@@ -2031,7 +1922,7 @@
         <v>5121</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -2044,9 +1935,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>0</v>
       </c>
@@ -2054,7 +1943,7 @@
         <v>11021</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -2067,9 +1956,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="2">
         <v>0</v>
       </c>
@@ -2077,7 +1964,7 @@
         <v>11031</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -2090,9 +1977,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>0</v>
       </c>
@@ -2113,9 +1998,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>0</v>
       </c>
@@ -2123,22 +2006,20 @@
         <v>11045</v>
       </c>
       <c r="D58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="G58" s="2">
         <v>1104</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>0</v>
       </c>
@@ -2159,9 +2040,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>0</v>
       </c>
@@ -2169,7 +2048,7 @@
         <v>11043</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
@@ -2182,9 +2061,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>0</v>
       </c>
@@ -2205,9 +2082,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" s="2">
         <v>0</v>
       </c>
@@ -2228,9 +2103,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63" s="2">
         <v>0</v>
       </c>
@@ -2251,9 +2124,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>0</v>
       </c>
@@ -2274,9 +2145,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="2">
         <v>0</v>
       </c>
@@ -2297,9 +2166,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="2">
         <v>0</v>
       </c>
@@ -2320,9 +2187,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>0</v>
       </c>
@@ -2343,9 +2208,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="2">
         <v>0</v>
       </c>
@@ -2359,16 +2222,14 @@
         <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G68" s="2">
         <v>1203</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="2">
         <v>0</v>
       </c>
@@ -2389,9 +2250,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>0</v>
       </c>
@@ -2412,9 +2271,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="2">
         <v>0</v>
       </c>
@@ -2428,16 +2285,14 @@
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G71" s="2">
         <v>5121</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A72" s="2"/>
       <c r="B72" s="2">
         <v>0</v>
       </c>
@@ -2458,9 +2313,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A73" s="2"/>
       <c r="B73" s="2">
         <v>0</v>
       </c>
@@ -2481,9 +2334,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A74" s="2"/>
       <c r="B74" s="2">
         <v>0</v>
       </c>
@@ -2504,9 +2355,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="2">
         <v>0</v>
       </c>
@@ -2527,9 +2376,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="2">
         <v>0</v>
       </c>
@@ -2550,9 +2397,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77" s="2">
         <v>0</v>
       </c>
@@ -2573,9 +2418,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="2">
         <v>0</v>
       </c>
@@ -2596,9 +2439,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="2">
         <v>0</v>
       </c>
@@ -2619,9 +2460,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="2">
         <v>0</v>
       </c>
@@ -2642,9 +2481,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="2">
         <v>0</v>
       </c>
@@ -2665,9 +2502,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="2">
         <v>0</v>
       </c>
@@ -2688,9 +2523,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="2">
         <v>0</v>
       </c>
@@ -2711,9 +2544,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A84" s="2"/>
       <c r="B84" s="2">
         <v>0</v>
       </c>
@@ -2734,9 +2565,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="2">
         <v>0</v>
       </c>
@@ -2757,9 +2586,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A86" s="2"/>
       <c r="B86" s="2">
         <v>0</v>
       </c>
@@ -2780,9 +2607,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="2">
         <v>0</v>
       </c>
@@ -2803,9 +2628,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>0</v>
       </c>
@@ -2826,9 +2649,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="2">
         <v>0</v>
       </c>
@@ -2849,9 +2670,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90" s="2">
         <v>0</v>
       </c>
@@ -2872,9 +2691,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>0</v>
       </c>
@@ -2895,9 +2712,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="2">
         <v>0</v>
       </c>
@@ -2918,9 +2733,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A93" s="2"/>
       <c r="B93" s="2">
         <v>0</v>
       </c>
@@ -2941,9 +2754,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>0</v>
       </c>
@@ -2964,9 +2775,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="2">
         <v>0</v>
       </c>
@@ -2987,9 +2796,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>0</v>
       </c>
@@ -3010,9 +2817,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="2">
         <v>0</v>
       </c>
@@ -3033,9 +2838,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" s="2">
         <v>0</v>
       </c>
@@ -3056,9 +2859,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99" s="2">
         <v>0</v>
       </c>
@@ -3079,9 +2880,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="2">
         <v>0</v>
       </c>
@@ -3102,9 +2901,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A101" s="2"/>
       <c r="B101" s="2">
         <v>0</v>
       </c>
@@ -3125,9 +2922,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>0</v>
       </c>
@@ -3148,9 +2943,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103" s="2">
         <v>0</v>
       </c>
@@ -3171,9 +2964,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A104" s="2"/>
       <c r="B104" s="2">
         <v>0</v>
       </c>
@@ -3194,9 +2985,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A105" s="2"/>
       <c r="B105" s="2">
         <v>0</v>
       </c>
@@ -3210,16 +2999,14 @@
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G105" s="2">
         <v>12032</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A106" s="2"/>
       <c r="B106" s="2">
         <v>0</v>
       </c>
@@ -3233,16 +3020,14 @@
         <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G106" s="2">
         <v>12033</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A107" s="2"/>
       <c r="B107" s="2">
         <v>0</v>
       </c>
@@ -3263,9 +3048,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A108" s="2"/>
       <c r="B108" s="2">
         <v>0</v>
       </c>
@@ -3286,9 +3069,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A109" s="2"/>
       <c r="B109" s="2">
         <v>0</v>
       </c>
@@ -3309,9 +3090,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A110" s="2"/>
       <c r="B110" s="2">
         <v>0</v>
       </c>
@@ -3332,9 +3111,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A111" s="2"/>
       <c r="B111" s="2">
         <v>0</v>
       </c>
@@ -3355,9 +3132,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A112" s="2"/>
       <c r="B112" s="2">
         <v>0</v>
       </c>
@@ -3378,9 +3153,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A113" s="2"/>
       <c r="B113" s="2">
         <v>0</v>
       </c>

--- a/Tree Account.xlsx
+++ b/Tree Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CB51D3-55C3-4401-9403-11A076F06A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609C3865-CC2F-460F-B2DB-64BD6470345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8DE9341-FD8D-480E-9B5B-894571E89E4B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="126">
   <si>
     <t>Description</t>
   </si>
@@ -395,18 +395,12 @@
     <t>براعة اختراع 1</t>
   </si>
   <si>
-    <t>مستحقات رواتب</t>
-  </si>
-  <si>
     <t>Cheques-Main</t>
   </si>
   <si>
     <t>Banks-Main</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
     <t>Members-Main</t>
   </si>
   <si>
@@ -414,6 +408,9 @@
   </si>
   <si>
     <t>Employees-Main</t>
+  </si>
+  <si>
+    <t>SalaryPayments-Main</t>
   </si>
 </sst>
 </file>
@@ -783,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3CBB81-A5B1-4221-9A31-5BE15C378FA5}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1415,7 @@
         <v>1101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="b">
         <v>0</v>
@@ -1919,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="C54" s="2">
-        <v>5121</v>
+        <v>51201</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -1943,7 +1940,7 @@
         <v>11021</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -1964,7 +1961,7 @@
         <v>11031</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="b">
         <v>0</v>
@@ -2006,13 +2003,13 @@
         <v>11045</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G58" s="2">
         <v>1104</v>
@@ -2048,7 +2045,7 @@
         <v>11043</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
@@ -2276,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="C71" s="2">
-        <v>51212</v>
+        <v>110111</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G71" s="2">
-        <v>5121</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="2">
-        <v>110111</v>
+        <v>110112</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>107</v>
@@ -2306,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2">
         <v>1101</v>
@@ -2318,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="2">
-        <v>110112</v>
+        <v>110113</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>107</v>
@@ -2327,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2">
         <v>1101</v>
@@ -2339,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="2">
-        <v>110113</v>
+        <v>110114</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>107</v>
@@ -2348,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G74" s="2">
         <v>1101</v>
@@ -2360,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="2">
-        <v>110114</v>
+        <v>120201</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>107</v>
@@ -2369,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G75" s="2">
-        <v>1101</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2381,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="2">
-        <v>120201</v>
+        <v>120202</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>107</v>
@@ -2390,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" s="2">
         <v>1202</v>
@@ -2402,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="2">
-        <v>120202</v>
+        <v>120203</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>107</v>
@@ -2411,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G77" s="2">
         <v>1202</v>
@@ -2423,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="2">
-        <v>120203</v>
+        <v>120204</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>107</v>
@@ -2432,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G78" s="2">
         <v>1202</v>
@@ -2444,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="2">
-        <v>120204</v>
+        <v>120205</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>107</v>
@@ -2453,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G79" s="2">
         <v>1202</v>
@@ -2465,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="2">
-        <v>120205</v>
+        <v>120206</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>107</v>
@@ -2474,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G80" s="2">
         <v>1202</v>
@@ -2486,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="2">
-        <v>120206</v>
+        <v>120207</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>107</v>
@@ -2495,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G81" s="2">
         <v>1202</v>
@@ -2507,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="2">
-        <v>120207</v>
+        <v>211201</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>107</v>
@@ -2516,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G82" s="2">
-        <v>1202</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2528,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="2">
-        <v>211201</v>
+        <v>213101</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>107</v>
@@ -2537,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G83" s="2">
-        <v>2112</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2549,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="2">
-        <v>213101</v>
+        <v>215101</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>107</v>
@@ -2558,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G84" s="2">
-        <v>2131</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="2">
-        <v>215101</v>
+        <v>216301</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>107</v>
@@ -2579,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G85" s="2">
-        <v>215</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2591,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="2">
-        <v>216301</v>
+        <v>216401</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>107</v>
@@ -2600,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G86" s="2">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2612,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="2">
-        <v>216401</v>
+        <v>216501</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>107</v>
@@ -2621,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="G87" s="2">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="2">
-        <v>216501</v>
+        <v>221101</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>107</v>
@@ -2642,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="G88" s="2">
-        <v>2165</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2654,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="2">
-        <v>221101</v>
+        <v>311101</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>107</v>
@@ -2663,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G89" s="2">
-        <v>221</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="2">
-        <v>311101</v>
+        <v>331101</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>107</v>
@@ -2684,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="G90" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2696,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="2">
-        <v>331101</v>
+        <v>2141001</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>107</v>
@@ -2705,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G91" s="2">
-        <v>33</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2717,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="2">
-        <v>2141001</v>
+        <v>2142001</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>107</v>
@@ -2726,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G92" s="2">
-        <v>2141</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="2">
-        <v>2142001</v>
+        <v>2143001</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>107</v>
@@ -2747,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G93" s="2">
-        <v>2142</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2759,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="2">
-        <v>2143001</v>
+        <v>5210201</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>107</v>
@@ -2768,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G94" s="2">
-        <v>2143</v>
+        <v>51202</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2780,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="2">
-        <v>5210201</v>
+        <v>6211001</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>107</v>
@@ -2789,10 +2786,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G95" s="2">
-        <v>51202</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="2">
-        <v>6211001</v>
+        <v>11051001</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>107</v>
@@ -2810,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2">
-        <v>62</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2822,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="2">
-        <v>11051001</v>
+        <v>11061001</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>107</v>
@@ -2831,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G97" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2843,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="2">
-        <v>11061001</v>
+        <v>11071001</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>107</v>
@@ -2852,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2">
-        <v>1106</v>
+        <v>11071</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2864,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="2">
-        <v>11071001</v>
+        <v>11081001</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>107</v>
@@ -2873,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G99" s="2">
-        <v>11071</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2885,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="2">
-        <v>11081001</v>
+        <v>11082001</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>107</v>
@@ -2894,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G100" s="2">
-        <v>11081</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2906,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="2">
-        <v>11082001</v>
+        <v>11083001</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>107</v>
@@ -2915,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G101" s="2">
-        <v>11082</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="2">
-        <v>11083001</v>
+        <v>12011001</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>107</v>
@@ -2936,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G102" s="2">
-        <v>11083</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2948,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="2">
-        <v>12011001</v>
+        <v>12031001</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>107</v>
@@ -2957,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G103" s="2">
-        <v>12011</v>
+        <v>12031</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2969,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="2">
-        <v>12031001</v>
+        <v>12032001</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>107</v>
@@ -2978,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="G104" s="2">
-        <v>12031</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2990,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="2">
-        <v>12032001</v>
+        <v>12033001</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>107</v>
@@ -2999,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G105" s="2">
-        <v>12032</v>
+        <v>12033</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3011,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="2">
-        <v>12033001</v>
+        <v>120201001</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>107</v>
@@ -3020,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G106" s="2">
-        <v>12033</v>
+        <v>120201</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3032,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="2">
-        <v>120201001</v>
+        <v>120202001</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>107</v>
@@ -3041,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G107" s="2">
-        <v>120201</v>
+        <v>120202</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="2">
-        <v>120202001</v>
+        <v>120203001</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>107</v>
@@ -3062,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G108" s="2">
-        <v>120202</v>
+        <v>120203</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="2">
-        <v>120203001</v>
+        <v>120204001</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>107</v>
@@ -3083,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G109" s="2">
-        <v>120203</v>
+        <v>120204</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="2">
-        <v>120204001</v>
+        <v>120205001</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>107</v>
@@ -3104,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G110" s="2">
-        <v>120204</v>
+        <v>120205</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3116,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="2">
-        <v>120205001</v>
+        <v>120206001</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>107</v>
@@ -3125,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G111" s="2">
-        <v>120205</v>
+        <v>120206</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3137,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="2">
-        <v>120206001</v>
+        <v>120207001</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>107</v>
@@ -3146,32 +3143,20 @@
         <v>0</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G112" s="2">
-        <v>120206</v>
+        <v>120207</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-      <c r="B113" s="2">
-        <v>0</v>
-      </c>
-      <c r="C113" s="2">
-        <v>120207001</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G113" s="2">
-        <v>120207</v>
-      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
@@ -3200,18 +3185,9 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
-    <sortCondition ref="C1:C118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G117">
+    <sortCondition ref="C1:C117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
